--- a/biology/Médecine/GP1BA/GP1BA.xlsx
+++ b/biology/Médecine/GP1BA/GP1BA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le GP1BA (pour « glycoprotein Ib alpha  ») est une glycoprotéine intervenant dans l'agrégation plaquettaire. Son gène est le GP1BA situé sur le chromosome 17 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se lie au domaine A1 du facteur de von Willebrand[5] ainsi qu'à la thrombine[6].
-Il forme un complexe avec le facteur IX et V qui peut se fixer sur la sélectine P, induisant l'agrégation plaquettaire[7].
-Il peut se lier à l'intégrine leucocytaire Mac-1, favorisant la thrombose[8].
-Il se lie également à la protéine disulfure isomérase plaquettaire, régulant l'action du premier et favorisant également la thrombose[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se lie au domaine A1 du facteur de von Willebrand ainsi qu'à la thrombine.
+Il forme un complexe avec le facteur IX et V qui peut se fixer sur la sélectine P, induisant l'agrégation plaquettaire.
+Il peut se lier à l'intégrine leucocytaire Mac-1, favorisant la thrombose.
+Il se lie également à la protéine disulfure isomérase plaquettaire, régulant l'action du premier et favorisant également la thrombose.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La mutation du gène provoque la maladie de Bernard et Soulier.
 </t>
